--- a/results/mp/logistic/corona/confidence/84/topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/topk-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,73 +49,82 @@
     <t>panic</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>hope</t>
   </si>
   <si>
     <t>please</t>
@@ -127,16 +136,19 @@
     <t>well</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>care</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>increase</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
   <si>
     <t>.</t>
@@ -500,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,10 +520,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -569,13 +581,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7534246575342466</v>
+        <v>0.7465753424657534</v>
       </c>
       <c r="C3">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D3">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -587,19 +599,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -611,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -619,13 +631,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.455026455026455</v>
+        <v>0.4232804232804233</v>
       </c>
       <c r="C4">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D4">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -637,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K4">
         <v>0.9152542372881356</v>
@@ -669,13 +681,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3779069767441861</v>
+        <v>0.3468992248062016</v>
       </c>
       <c r="C5">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D5">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -687,19 +699,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -711,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -719,13 +731,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2147651006711409</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -737,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -761,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -769,13 +781,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1638888888888889</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="C7">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -787,62 +799,110 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>301</v>
+        <v>120</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L7">
+        <v>30</v>
+      </c>
+      <c r="M7">
+        <v>30</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.1361111111111111</v>
+      </c>
+      <c r="C8">
+        <v>49</v>
+      </c>
+      <c r="D8">
+        <v>49</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>311</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8">
+        <v>0.8301886792452831</v>
+      </c>
+      <c r="L8">
+        <v>88</v>
+      </c>
+      <c r="M8">
+        <v>88</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>18</v>
       </c>
-      <c r="K7">
-        <v>0.8611111111111112</v>
-      </c>
-      <c r="L7">
-        <v>31</v>
-      </c>
-      <c r="M7">
-        <v>31</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="J8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8">
-        <v>0.835509138381201</v>
-      </c>
-      <c r="L8">
-        <v>320</v>
-      </c>
-      <c r="M8">
-        <v>320</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>63</v>
-      </c>
     </row>
     <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.004863813229571985</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>5115</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K9">
         <v>0.8103448275862069</v>
@@ -868,16 +928,16 @@
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K10">
-        <v>0.8018867924528302</v>
+        <v>0.804177545691906</v>
       </c>
       <c r="L10">
-        <v>85</v>
+        <v>308</v>
       </c>
       <c r="M10">
-        <v>85</v>
+        <v>308</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -889,12 +949,12 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K11">
         <v>0.7948717948717948</v>
@@ -920,16 +980,16 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>0.7816901408450704</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L12">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="M12">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -941,21 +1001,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.7804878048780488</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L13">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="M13">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -967,12 +1027,12 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K14">
         <v>0.7777777777777778</v>
@@ -998,16 +1058,16 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.7734375</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L15">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1019,21 +1079,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.75625</v>
+        <v>0.76875</v>
       </c>
       <c r="L16">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M16">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1045,21 +1105,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.7301587301587301</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L17">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M17">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1071,21 +1131,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.7021276595744681</v>
+        <v>0.765625</v>
       </c>
       <c r="L18">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="M18">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1097,21 +1157,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6875</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1123,21 +1183,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20">
+        <v>0.62</v>
+      </c>
+      <c r="L20">
         <v>31</v>
       </c>
-      <c r="K20">
-        <v>0.6744186046511628</v>
-      </c>
-      <c r="L20">
-        <v>29</v>
-      </c>
       <c r="M20">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1149,21 +1209,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.66</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1175,21 +1235,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.6441176470588236</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L22">
-        <v>219</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>219</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1201,21 +1261,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>121</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.5857740585774058</v>
+        <v>0.6</v>
       </c>
       <c r="L23">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1227,47 +1287,47 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>99</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.5782312925170068</v>
+        <v>0.5774058577405857</v>
       </c>
       <c r="L24">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="M24">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="N24">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>124</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.5638297872340425</v>
+        <v>0.5559322033898305</v>
       </c>
       <c r="L25">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="M25">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1279,21 +1339,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>41</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.5384615384615384</v>
+        <v>0.5212765957446809</v>
       </c>
       <c r="L26">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="M26">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1305,21 +1365,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L27">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M27">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1331,21 +1391,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.4719101123595505</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L28">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M28">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1357,21 +1417,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.3846153846153846</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1383,59 +1443,137 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.00823293172690763</v>
+        <v>0.02754590984974958</v>
       </c>
       <c r="L30">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M30">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="N30">
-        <v>0.72</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O30">
-        <v>0.28</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>4939</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.006258692628650904</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M31">
         <v>41</v>
       </c>
       <c r="N31">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="O31">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>4287</v>
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32">
+        <v>0.006631832797427652</v>
+      </c>
+      <c r="L32">
+        <v>33</v>
+      </c>
+      <c r="M32">
+        <v>53</v>
+      </c>
+      <c r="N32">
+        <v>0.62</v>
+      </c>
+      <c r="O32">
+        <v>0.38</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>4943</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33">
+        <v>0.005801810164771408</v>
+      </c>
+      <c r="L33">
+        <v>25</v>
+      </c>
+      <c r="M33">
+        <v>44</v>
+      </c>
+      <c r="N33">
+        <v>0.57</v>
+      </c>
+      <c r="O33">
+        <v>0.43</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34">
+        <v>0.004863813229571985</v>
+      </c>
+      <c r="L34">
+        <v>25</v>
+      </c>
+      <c r="M34">
+        <v>50</v>
+      </c>
+      <c r="N34">
+        <v>0.5</v>
+      </c>
+      <c r="O34">
+        <v>0.5</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>5115</v>
       </c>
     </row>
   </sheetData>
